--- a/Matrizes de markov.xlsx
+++ b/Matrizes de markov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65506b31b36bc35e/Área de Trabalho/UNIP/TCC/TCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC67AF9-E16B-40A0-9ADD-A42E4323216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2FC67AF9-E16B-40A0-9ADD-A42E4323216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B90F346-1995-4AC5-B1E4-5D2B14632440}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90637894-EB78-46AA-BC56-FC3AB9AA7147}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{90637894-EB78-46AA-BC56-FC3AB9AA7147}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -401,15 +401,6 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -422,15 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -451,6 +433,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -769,12 +769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF46A56-AC79-4B9A-A297-EC4BD8E30783}">
   <dimension ref="B1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
@@ -783,901 +784,906 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="1"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>0</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>0</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="F14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="F15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>0.83</v>
       </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>0.17</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>0</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="F19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="F20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8">
+      <c r="B21" s="5">
         <v>0.84</v>
       </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>0.16</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>0</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="D22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="F24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="F24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8">
+      <c r="B26" s="5">
         <v>0.33</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>0.17</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>0.67</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>0.83</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="D27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="F29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="F30" s="8" t="s">
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="F30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8">
+      <c r="B31" s="5">
         <v>0</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>0.1</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
         <v>0.9</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="D32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="F34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="F35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8">
+      <c r="B36" s="5">
         <v>0.5</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <v>0.11</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>0.5</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>0.89</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="11" t="s">
+      <c r="D37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="F39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="15" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="F39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="B40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="F40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8">
+      <c r="B41" s="5">
         <v>0</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <v>0.1</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="11">
-        <v>1</v>
-      </c>
-      <c r="C42" s="11">
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8">
         <v>0.9</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="11" t="s">
+      <c r="D42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="F44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="15" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="F44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="F45" s="8" t="s">
+      <c r="B45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="F45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="8">
+      <c r="B46" s="5">
         <v>0</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="5">
         <v>0</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="D46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="11">
+      <c r="B47" s="8">
         <v>0</v>
       </c>
-      <c r="C47" s="11">
-        <v>1</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="11" t="s">
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="F49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="15" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="F49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="F50" s="8" t="s">
+      <c r="B50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="F50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="8">
+      <c r="B51" s="5">
         <v>0</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="5">
         <v>0.11</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="6" t="s">
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="11">
-        <v>1</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="B52" s="8">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8">
         <v>0.89</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="11" t="s">
+      <c r="D52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="F54" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="15" t="s">
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="F54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="F55" s="8" t="s">
+      <c r="B55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="F55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="8">
+      <c r="B56" s="5">
         <v>0.25</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="5">
         <v>0.18</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="D56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="11">
+      <c r="B57" s="8">
         <v>0.75</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="8">
         <v>0.82</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="11" t="s">
+      <c r="D57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="F59" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="15" t="s">
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="F59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="F60" s="8" t="s">
+      <c r="B60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="F60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="8">
+      <c r="B61" s="5">
         <v>0.77</v>
       </c>
-      <c r="C61" s="8">
-        <v>1</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="11">
+      <c r="B62" s="8">
         <v>0.23</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="8">
         <v>0</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="11" t="s">
+      <c r="D62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="21"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="F64" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" s="15" t="s">
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="F64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="F65" s="8" t="s">
+      <c r="B65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="F65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="8">
+      <c r="B66" s="5">
         <v>0.84</v>
       </c>
-      <c r="C66" s="8">
-        <v>1</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="6" t="s">
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="11">
+      <c r="B67" s="8">
         <v>0.16</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="8">
         <v>0</v>
       </c>
-      <c r="D67" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="11" t="s">
+      <c r="D67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="24"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B29:D29"/>
@@ -1685,11 +1691,6 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B59:D59"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
